--- a/project/project 2/sp500.xlsx
+++ b/project/project 2/sp500.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melih\Documents\GitHub\datascience\project\project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B69D4F4-5C5D-445B-AC13-55252C90E919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08479C4C-B72C-4B86-95DD-088BB63664F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92206957-67EB-44F6-B0B9-D3E26132C035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$H$504</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="2067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="2068">
   <si>
     <t>#</t>
   </si>
@@ -6237,6 +6243,9 @@
   </si>
   <si>
     <t>(0.99%)</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -6292,6 +6301,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="scraped_data_orginal"/>
+      <sheetName val="Sayfa1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6611,15 +6638,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9770DAE3-6D1E-40E2-8D03-759A1C2E0D0D}">
-  <dimension ref="A1:G504"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6641,8 +6669,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6664,8 +6695,12 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>VLOOKUP(C2,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MSFT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6687,8 +6722,12 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f>VLOOKUP(C3,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AAPL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6710,8 +6749,12 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f>VLOOKUP(C4,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NVDA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6733,8 +6776,12 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f>VLOOKUP(C5,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMZN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6756,8 +6803,12 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f>VLOOKUP(C6,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>META</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6779,8 +6830,12 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f>VLOOKUP(C7,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GOOGL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6802,8 +6857,12 @@
       <c r="G8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f>VLOOKUP(C8,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GOOG</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6825,8 +6884,12 @@
       <c r="G9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f>VLOOKUP(C9,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BRK.B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6848,8 +6911,12 @@
       <c r="G10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f>VLOOKUP(C10,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LLY</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6871,8 +6938,12 @@
       <c r="G11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f>VLOOKUP(C11,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AVGO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6894,8 +6965,12 @@
       <c r="G12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f>VLOOKUP(C12,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>JPM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6917,8 +6992,12 @@
       <c r="G13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>VLOOKUP(C13,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TSLA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6940,8 +7019,12 @@
       <c r="G14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f>VLOOKUP(C14,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>XOM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6963,8 +7046,12 @@
       <c r="G15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="str">
+        <f>VLOOKUP(C15,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>UNH</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6986,8 +7073,12 @@
       <c r="G16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f>VLOOKUP(C16,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7009,8 +7100,12 @@
       <c r="G17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="e">
+        <f>VLOOKUP(C17,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7032,8 +7127,12 @@
       <c r="G18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f>VLOOKUP(C18,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>COST</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7055,8 +7154,12 @@
       <c r="G19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="str">
+        <f>VLOOKUP(C19,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7078,8 +7181,12 @@
       <c r="G20" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f>VLOOKUP(C20,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>JNJ</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7101,8 +7208,12 @@
       <c r="G21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="str">
+        <f>VLOOKUP(C21,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HD</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7124,8 +7235,12 @@
       <c r="G22" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="str">
+        <f>VLOOKUP(C22,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MRK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7147,8 +7262,12 @@
       <c r="G23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="str">
+        <f>VLOOKUP(C23,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ABBV</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7170,8 +7289,12 @@
       <c r="G24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="str">
+        <f>VLOOKUP(C24,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NFLX</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7193,8 +7316,12 @@
       <c r="G25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="str">
+        <f>VLOOKUP(C25,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WMT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7216,8 +7343,12 @@
       <c r="G26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="str">
+        <f>VLOOKUP(C26,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BAC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7239,8 +7370,12 @@
       <c r="G27" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="str">
+        <f>VLOOKUP(C27,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CVX</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7262,8 +7397,12 @@
       <c r="G28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="str">
+        <f>VLOOKUP(C28,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMD</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7285,8 +7424,12 @@
       <c r="G29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="str">
+        <f>VLOOKUP(C29,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ADBE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7308,8 +7451,12 @@
       <c r="G30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="str">
+        <f>VLOOKUP(C30,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CRM</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7331,8 +7478,12 @@
       <c r="G31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="str">
+        <f>VLOOKUP(C31,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KO</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7354,8 +7505,12 @@
       <c r="G32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="str">
+        <f>VLOOKUP(C32,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ORCL</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7377,8 +7532,12 @@
       <c r="G33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="str">
+        <f>VLOOKUP(C33,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PEP</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7400,8 +7559,12 @@
       <c r="G34" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="str">
+        <f>VLOOKUP(C34,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>QCOM</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7423,8 +7586,12 @@
       <c r="G35" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="str">
+        <f>VLOOKUP(C35,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WFC</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7446,8 +7613,12 @@
       <c r="G36" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="str">
+        <f>VLOOKUP(C36,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TMO</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7469,8 +7640,12 @@
       <c r="G37" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="str">
+        <f>VLOOKUP(C37,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LIN</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7492,8 +7667,12 @@
       <c r="G38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="str">
+        <f>VLOOKUP(C38,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMAT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7515,8 +7694,12 @@
       <c r="G39" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="str">
+        <f>VLOOKUP(C39,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CSCO</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7538,8 +7721,12 @@
       <c r="G40" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="str">
+        <f>VLOOKUP(C40,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ACN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7561,8 +7748,12 @@
       <c r="G41" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="str">
+        <f>VLOOKUP(C41,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>INTU</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7584,8 +7775,12 @@
       <c r="G42" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="str">
+        <f>VLOOKUP(C42,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MCD</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7607,8 +7802,12 @@
       <c r="G43" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="str">
+        <f>VLOOKUP(C43,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ABT</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7630,8 +7829,12 @@
       <c r="G44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="str">
+        <f>VLOOKUP(C44,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DIS</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7653,8 +7856,12 @@
       <c r="G45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="str">
+        <f>VLOOKUP(C45,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TXN</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7676,8 +7883,12 @@
       <c r="G46" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="str">
+        <f>VLOOKUP(C46,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VZ</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7699,8 +7910,12 @@
       <c r="G47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="str">
+        <f>VLOOKUP(C47,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7722,8 +7937,12 @@
       <c r="G48" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="str">
+        <f>VLOOKUP(C48,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMGN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7745,8 +7964,12 @@
       <c r="G49" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="str">
+        <f>VLOOKUP(C49,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NOW</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7768,8 +7991,12 @@
       <c r="G50" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="str">
+        <f>VLOOKUP(C50,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CAT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7791,8 +8018,12 @@
       <c r="G51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="str">
+        <f>VLOOKUP(C51,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DHR</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7814,8 +8045,12 @@
       <c r="G52" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="str">
+        <f>VLOOKUP(C52,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IBM</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7837,8 +8072,12 @@
       <c r="G53" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="str">
+        <f>VLOOKUP(C53,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PFE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7860,8 +8099,12 @@
       <c r="G54" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="str">
+        <f>VLOOKUP(C54,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PM</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7883,8 +8126,12 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="str">
+        <f>VLOOKUP(C55,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ISRG</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7906,8 +8153,12 @@
       <c r="G56" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="str">
+        <f>VLOOKUP(C56,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GS</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7929,8 +8180,12 @@
       <c r="G57" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="str">
+        <f>VLOOKUP(C57,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CMCSA</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7952,8 +8207,12 @@
       <c r="G58" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="str">
+        <f>VLOOKUP(C58,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>UBER</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7975,8 +8234,12 @@
       <c r="G59" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="str">
+        <f>VLOOKUP(C59,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MU</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7998,8 +8261,12 @@
       <c r="G60" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="str">
+        <f>VLOOKUP(C60,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NEE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8021,8 +8288,12 @@
       <c r="G61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="str">
+        <f>VLOOKUP(C61,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SPGI</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8044,8 +8315,12 @@
       <c r="G62" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="str">
+        <f>VLOOKUP(C62,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LRCX</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8067,8 +8342,12 @@
       <c r="G63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="str">
+        <f>VLOOKUP(C63,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HON</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8090,8 +8369,12 @@
       <c r="G64" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="str">
+        <f>VLOOKUP(C64,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>UNP</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8113,8 +8396,12 @@
       <c r="G65" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="str">
+        <f>VLOOKUP(C65,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8136,8 +8423,12 @@
       <c r="G66" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="str">
+        <f>VLOOKUP(C66,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>COP</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8159,8 +8450,12 @@
       <c r="G67" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="str">
+        <f>VLOOKUP(C67,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AXP</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8182,8 +8477,12 @@
       <c r="G68" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="str">
+        <f>VLOOKUP(C68,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RTX</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8205,8 +8504,12 @@
       <c r="G69" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="str">
+        <f>VLOOKUP(C69,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BKNG</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8228,8 +8531,12 @@
       <c r="G70" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="str">
+        <f>VLOOKUP(C70,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>INTC</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8251,8 +8558,12 @@
       <c r="G71" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="str">
+        <f>VLOOKUP(C71,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TJX</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8274,8 +8585,12 @@
       <c r="G72" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="str">
+        <f>VLOOKUP(C72,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ETN</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8297,8 +8612,12 @@
       <c r="G73" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="str">
+        <f>VLOOKUP(C73,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MS</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8320,8 +8639,12 @@
       <c r="G74" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="str">
+        <f>VLOOKUP(C74,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ELV</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8343,8 +8666,12 @@
       <c r="G75" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="str">
+        <f>VLOOKUP(C75,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PGR</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8366,8 +8693,12 @@
       <c r="G76" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="str">
+        <f>VLOOKUP(C76,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LOW</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8389,8 +8720,12 @@
       <c r="G77" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="str">
+        <f>VLOOKUP(C77,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VRTX</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8412,8 +8747,12 @@
       <c r="G78" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="str">
+        <f>VLOOKUP(C78,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8435,8 +8774,12 @@
       <c r="G79" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="str">
+        <f>VLOOKUP(C79,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SYK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8458,8 +8801,12 @@
       <c r="G80" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="str">
+        <f>VLOOKUP(C80,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BSX</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8481,8 +8828,12 @@
       <c r="G81" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="str">
+        <f>VLOOKUP(C81,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>REGN</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8504,8 +8855,12 @@
       <c r="G82" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="str">
+        <f>VLOOKUP(C82,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ADI</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8527,8 +8882,12 @@
       <c r="G83" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="str">
+        <f>VLOOKUP(C83,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KLAC</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8550,8 +8909,12 @@
       <c r="G84" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="str">
+        <f>VLOOKUP(C84,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PANW</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8573,8 +8936,12 @@
       <c r="G85" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="str">
+        <f>VLOOKUP(C85,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BLK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8596,8 +8963,12 @@
       <c r="G86" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="str">
+        <f>VLOOKUP(C86,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SCHW</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8619,8 +8990,12 @@
       <c r="G87" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="str">
+        <f>VLOOKUP(C87,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BA</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8642,8 +9017,12 @@
       <c r="G88" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="str">
+        <f>VLOOKUP(C88,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MMC</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8665,8 +9044,12 @@
       <c r="G89" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="str">
+        <f>VLOOKUP(C89,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PLD</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8688,8 +9071,12 @@
       <c r="G90" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="str">
+        <f>VLOOKUP(C90,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CB</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8711,8 +9098,12 @@
       <c r="G91" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="str">
+        <f>VLOOKUP(C91,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MDT</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8734,8 +9125,12 @@
       <c r="G92" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="str">
+        <f>VLOOKUP(C92,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LMT</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8757,8 +9152,12 @@
       <c r="G93" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="str">
+        <f>VLOOKUP(C93,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>UPS</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8780,8 +9179,12 @@
       <c r="G94" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="str">
+        <f>VLOOKUP(C94,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ADP</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8803,8 +9206,12 @@
       <c r="G95" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="str">
+        <f>VLOOKUP(C95,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8826,8 +9233,12 @@
       <c r="G96" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="str">
+        <f>VLOOKUP(C96,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NKE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8849,8 +9260,12 @@
       <c r="G97" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="str">
+        <f>VLOOKUP(C97,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8872,8 +9287,12 @@
       <c r="G98" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="str">
+        <f>VLOOKUP(C98,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TMUS</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8895,8 +9314,12 @@
       <c r="G99" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="str">
+        <f>VLOOKUP(C99,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SNPS</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8918,8 +9341,12 @@
       <c r="G100" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="str">
+        <f>VLOOKUP(C100,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMT</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8941,8 +9368,12 @@
       <c r="G101" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="str">
+        <f>VLOOKUP(C101,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CRWD</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8964,8 +9395,12 @@
       <c r="G102" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="str">
+        <f>VLOOKUP(C102,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ANET</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8987,8 +9422,12 @@
       <c r="G103" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="str">
+        <f>VLOOKUP(C103,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MDLZ</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9010,8 +9449,12 @@
       <c r="G104" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="str">
+        <f>VLOOKUP(C104,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SBUX</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9033,8 +9476,12 @@
       <c r="G105" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="str">
+        <f>VLOOKUP(C105,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BX</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9056,8 +9503,12 @@
       <c r="G106" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="str">
+        <f>VLOOKUP(C106,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FI</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9079,8 +9530,12 @@
       <c r="G107" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="str">
+        <f>VLOOKUP(C107,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GILD</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9102,8 +9557,12 @@
       <c r="G108" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="str">
+        <f>VLOOKUP(C108,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CMG</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9125,8 +9584,12 @@
       <c r="G109" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="str">
+        <f>VLOOKUP(C109,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CDNS</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9148,8 +9611,12 @@
       <c r="G110" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="str">
+        <f>VLOOKUP(C110,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BMY</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9171,8 +9638,12 @@
       <c r="G111" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="str">
+        <f>VLOOKUP(C111,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SO</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9194,8 +9665,12 @@
       <c r="G112" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="str">
+        <f>VLOOKUP(C112,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>APH</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9217,8 +9692,12 @@
       <c r="G113" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="str">
+        <f>VLOOKUP(C113,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ZTS</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9240,8 +9719,12 @@
       <c r="G114" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="str">
+        <f>VLOOKUP(C114,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MO</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9263,8 +9746,12 @@
       <c r="G115" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="str">
+        <f>VLOOKUP(C115,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CL</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9286,8 +9773,12 @@
       <c r="G116" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="str">
+        <f>VLOOKUP(C116,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ICE</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9309,8 +9800,12 @@
       <c r="G117" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="e">
+        <f>VLOOKUP(C117,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9332,8 +9827,12 @@
       <c r="G118" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="str">
+        <f>VLOOKUP(C118,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DUK</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9355,8 +9854,12 @@
       <c r="G119" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="str">
+        <f>VLOOKUP(C119,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MCK</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9378,8 +9881,12 @@
       <c r="G120" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" t="str">
+        <f>VLOOKUP(C120,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CVS</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9401,8 +9908,12 @@
       <c r="G121" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" t="str">
+        <f>VLOOKUP(C121,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TT</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9424,8 +9935,12 @@
       <c r="G122" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="str">
+        <f>VLOOKUP(C122,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EOG</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9447,8 +9962,12 @@
       <c r="G123" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" t="str">
+        <f>VLOOKUP(C123,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EQIX</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9470,8 +9989,12 @@
       <c r="G124" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" t="e">
+        <f>VLOOKUP(C124,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9493,8 +10016,12 @@
       <c r="G125" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" t="e">
+        <f>VLOOKUP(C125,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9516,8 +10043,12 @@
       <c r="G126" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" t="str">
+        <f>VLOOKUP(C126,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FCX</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9539,8 +10070,12 @@
       <c r="G127" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" t="str">
+        <f>VLOOKUP(C127,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TDG</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9562,8 +10097,12 @@
       <c r="G128" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="str">
+        <f>VLOOKUP(C128,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SHW</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9585,8 +10124,12 @@
       <c r="G129" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="str">
+        <f>VLOOKUP(C129,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NXPI</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9608,8 +10151,12 @@
       <c r="G130" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="str">
+        <f>VLOOKUP(C130,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FDX</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9631,8 +10178,12 @@
       <c r="G131" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="str">
+        <f>VLOOKUP(C131,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TGT</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9654,8 +10205,12 @@
       <c r="G132" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="str">
+        <f>VLOOKUP(C132,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ABNB</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9677,8 +10232,12 @@
       <c r="G133" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="str">
+        <f>VLOOKUP(C133,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BDX</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9700,8 +10259,12 @@
       <c r="G134" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="str">
+        <f>VLOOKUP(C134,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SLB</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9723,8 +10286,12 @@
       <c r="G135" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="str">
+        <f>VLOOKUP(C135,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MCO</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9746,8 +10313,12 @@
       <c r="G136" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="str">
+        <f>VLOOKUP(C136,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CSX</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9769,8 +10340,12 @@
       <c r="G137" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="str">
+        <f>VLOOKUP(C137,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GD</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9792,8 +10367,12 @@
       <c r="G138" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="str">
+        <f>VLOOKUP(C138,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CEG</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9815,8 +10394,12 @@
       <c r="G139" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="str">
+        <f>VLOOKUP(C139,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PH</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9838,8 +10421,12 @@
       <c r="G140" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="str">
+        <f>VLOOKUP(C140,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MSI</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9861,8 +10448,12 @@
       <c r="G141" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="str">
+        <f>VLOOKUP(C141,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AON</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9884,8 +10475,12 @@
       <c r="G142" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="str">
+        <f>VLOOKUP(C142,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ITW</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9907,8 +10502,12 @@
       <c r="G143" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="str">
+        <f>VLOOKUP(C143,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PNC</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9930,8 +10529,12 @@
       <c r="G144" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="str">
+        <f>VLOOKUP(C144,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WELL</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9953,8 +10556,12 @@
       <c r="G145" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" t="str">
+        <f>VLOOKUP(C145,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EMR</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9976,8 +10583,12 @@
       <c r="G146" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="str">
+        <f>VLOOKUP(C146,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MPC</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9999,8 +10610,12 @@
       <c r="G147" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="str">
+        <f>VLOOKUP(C147,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>USB</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10022,8 +10637,12 @@
       <c r="G148" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="str">
+        <f>VLOOKUP(C148,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HCA</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10045,8 +10664,12 @@
       <c r="G149" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="str">
+        <f>VLOOKUP(C149,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NOC</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10068,8 +10691,12 @@
       <c r="G150" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="str">
+        <f>VLOOKUP(C150,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PYPL</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10091,8 +10718,12 @@
       <c r="G151" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="str">
+        <f>VLOOKUP(C151,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ORLY</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10114,8 +10745,12 @@
       <c r="G152" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="str">
+        <f>VLOOKUP(C152,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CTAS</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10137,8 +10772,12 @@
       <c r="G153" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="str">
+        <f>VLOOKUP(C153,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ROP</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10160,8 +10799,12 @@
       <c r="G154" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="str">
+        <f>VLOOKUP(C154,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ECL</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10183,8 +10826,12 @@
       <c r="G155" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="e">
+        <f>VLOOKUP(C155,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10206,8 +10853,12 @@
       <c r="G156" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="str">
+        <f>VLOOKUP(C156,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MAR</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10229,8 +10880,12 @@
       <c r="G157" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="str">
+        <f>VLOOKUP(C157,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AJG</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10252,8 +10907,12 @@
       <c r="G158" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="str">
+        <f>VLOOKUP(C158,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MMM</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10275,8 +10934,12 @@
       <c r="G159" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="str">
+        <f>VLOOKUP(C159,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>APD</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10298,8 +10961,12 @@
       <c r="G160" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="str">
+        <f>VLOOKUP(C160,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EW</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10321,8 +10988,12 @@
       <c r="G161" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="str">
+        <f>VLOOKUP(C161,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HLT</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10344,8 +11015,12 @@
       <c r="G162" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="str">
+        <f>VLOOKUP(C162,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PCAR</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10367,8 +11042,12 @@
       <c r="G163" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="str">
+        <f>VLOOKUP(C163,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GM</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10390,8 +11069,12 @@
       <c r="G164" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="str">
+        <f>VLOOKUP(C164,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>COF</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10413,8 +11096,12 @@
       <c r="G165" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="str">
+        <f>VLOOKUP(C165,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ADSK</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10436,8 +11123,12 @@
       <c r="G166" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="str">
+        <f>VLOOKUP(C166,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TFC</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10459,8 +11150,12 @@
       <c r="G167" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" t="e">
+        <f>VLOOKUP(C167,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10482,8 +11177,12 @@
       <c r="G168" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" t="str">
+        <f>VLOOKUP(C168,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VLO</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10505,8 +11204,12 @@
       <c r="G169" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" t="str">
+        <f>VLOOKUP(C169,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WMB</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10528,8 +11231,12 @@
       <c r="G170" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" t="str">
+        <f>VLOOKUP(C170,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10551,8 +11258,12 @@
       <c r="G171" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" t="str">
+        <f>VLOOKUP(C171,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MCHP</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10574,8 +11285,12 @@
       <c r="G172" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="str">
+        <f>VLOOKUP(C172,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AIG</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10597,8 +11312,12 @@
       <c r="G173" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" t="str">
+        <f>VLOOKUP(C173,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DLR</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10620,8 +11339,12 @@
       <c r="G174" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" t="str">
+        <f>VLOOKUP(C174,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ROST</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10643,8 +11366,12 @@
       <c r="G175" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" t="str">
+        <f>VLOOKUP(C175,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AZO</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10666,8 +11393,12 @@
       <c r="G176" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" t="str">
+        <f>VLOOKUP(C176,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NSC</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10689,8 +11420,12 @@
       <c r="G177" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" t="str">
+        <f>VLOOKUP(C177,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NEM</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10712,8 +11447,12 @@
       <c r="G178" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" t="str">
+        <f>VLOOKUP(C178,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SPG</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10735,8 +11474,12 @@
       <c r="G179" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" t="str">
+        <f>VLOOKUP(C179,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>OKE</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10758,8 +11501,12 @@
       <c r="G180" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" t="str">
+        <f>VLOOKUP(C180,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SRE</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10781,8 +11528,12 @@
       <c r="G181" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" t="str">
+        <f>VLOOKUP(C181,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KMB</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10804,8 +11555,12 @@
       <c r="G182" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" t="str">
+        <f>VLOOKUP(C182,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CPRT</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10827,8 +11582,12 @@
       <c r="G183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" t="str">
+        <f>VLOOKUP(C183,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TRV</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10850,8 +11609,12 @@
       <c r="G184" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" t="str">
+        <f>VLOOKUP(C184,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AFL</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10873,8 +11636,12 @@
       <c r="G185" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" t="str">
+        <f>VLOOKUP(C185,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AEP</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10896,8 +11663,12 @@
       <c r="G186" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" t="str">
+        <f>VLOOKUP(C186,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GEV</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10919,8 +11690,12 @@
       <c r="G187" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" t="str">
+        <f>VLOOKUP(C187,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10942,8 +11717,12 @@
       <c r="G188" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" t="str">
+        <f>VLOOKUP(C188,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TEL</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10965,8 +11744,12 @@
       <c r="G189" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" t="str">
+        <f>VLOOKUP(C189,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HUM</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10988,8 +11771,12 @@
       <c r="G190" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" t="str">
+        <f>VLOOKUP(C190,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BK</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11011,8 +11798,12 @@
       <c r="G191" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" t="str">
+        <f>VLOOKUP(C191,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PSA</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11034,8 +11825,12 @@
       <c r="G192" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" t="str">
+        <f>VLOOKUP(C192,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DXCM</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11057,8 +11852,12 @@
       <c r="G193" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" t="str">
+        <f>VLOOKUP(C193,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>JCI</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11080,8 +11879,12 @@
       <c r="G194" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" t="str">
+        <f>VLOOKUP(C194,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>URI</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11103,8 +11906,12 @@
       <c r="G195" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="str">
+        <f>VLOOKUP(C195,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMP</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11126,8 +11933,12 @@
       <c r="G196" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" t="str">
+        <f>VLOOKUP(C196,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PRU</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11149,8 +11960,12 @@
       <c r="G197" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" t="str">
+        <f>VLOOKUP(C197,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LHX</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11172,8 +11987,12 @@
       <c r="G198" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" t="str">
+        <f>VLOOKUP(C198,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ALL</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11195,8 +12014,12 @@
       <c r="G199" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" t="str">
+        <f>VLOOKUP(C199,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MET</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11218,8 +12041,12 @@
       <c r="G200" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" t="str">
+        <f>VLOOKUP(C200,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CCI</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11241,8 +12068,12 @@
       <c r="G201" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" t="str">
+        <f>VLOOKUP(C201,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>OXY</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11264,8 +12095,12 @@
       <c r="G202" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" t="str">
+        <f>VLOOKUP(C202,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>STZ</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11287,8 +12122,12 @@
       <c r="G203" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" t="str">
+        <f>VLOOKUP(C203,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FIS</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11310,8 +12149,12 @@
       <c r="G204" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" t="str">
+        <f>VLOOKUP(C204,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SMCI</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11333,8 +12176,12 @@
       <c r="G205" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" t="str">
+        <f>VLOOKUP(C205,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DHI</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11356,8 +12203,12 @@
       <c r="G206" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" t="e">
+        <f>VLOOKUP(C206,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11379,8 +12230,12 @@
       <c r="G207" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" t="str">
+        <f>VLOOKUP(C207,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11402,8 +12257,12 @@
       <c r="G208" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" t="str">
+        <f>VLOOKUP(C208,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IDXX</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11425,8 +12284,12 @@
       <c r="G209" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" t="str">
+        <f>VLOOKUP(C209,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GWW</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11448,8 +12311,12 @@
       <c r="G210" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" t="str">
+        <f>VLOOKUP(C210,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RSG</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11471,8 +12338,12 @@
       <c r="G211" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" t="str">
+        <f>VLOOKUP(C211,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MPWR</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11494,8 +12365,12 @@
       <c r="G212" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" t="str">
+        <f>VLOOKUP(C212,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>OTIS</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11517,8 +12392,12 @@
       <c r="G213" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" t="str">
+        <f>VLOOKUP(C213,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MRNA</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11540,8 +12419,12 @@
       <c r="G214" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" t="str">
+        <f>VLOOKUP(C214,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KMI</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11563,8 +12446,12 @@
       <c r="G215" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" t="str">
+        <f>VLOOKUP(C215,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VRSK</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11586,8 +12473,12 @@
       <c r="G216" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" t="str">
+        <f>VLOOKUP(C216,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IQV</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11609,8 +12500,12 @@
       <c r="G217" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" t="str">
+        <f>VLOOKUP(C217,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AME</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11632,8 +12527,12 @@
       <c r="G218" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" t="str">
+        <f>VLOOKUP(C218,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FTNT</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11655,8 +12554,12 @@
       <c r="G219" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" t="str">
+        <f>VLOOKUP(C219,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MSCI</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11678,8 +12581,12 @@
       <c r="G220" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" t="str">
+        <f>VLOOKUP(C220,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NUE</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11701,8 +12608,12 @@
       <c r="G221" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" t="str">
+        <f>VLOOKUP(C221,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PAYX</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11724,8 +12635,12 @@
       <c r="G222" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" t="str">
+        <f>VLOOKUP(C222,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CTVA</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11747,8 +12662,12 @@
       <c r="G223" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" t="str">
+        <f>VLOOKUP(C223,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ACGL</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11770,8 +12689,12 @@
       <c r="G224" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" t="str">
+        <f>VLOOKUP(C224,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11793,8 +12716,12 @@
       <c r="G225" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" t="str">
+        <f>VLOOKUP(C225,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>COR</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11816,8 +12743,12 @@
       <c r="G226" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" t="str">
+        <f>VLOOKUP(C226,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CMI</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11839,8 +12770,12 @@
       <c r="G227" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" t="str">
+        <f>VLOOKUP(C227,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FICO</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11862,8 +12797,12 @@
       <c r="G228" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" t="e">
+        <f>VLOOKUP(C228,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11885,8 +12824,12 @@
       <c r="G229" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" t="str">
+        <f>VLOOKUP(C229,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DOW</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11908,8 +12851,12 @@
       <c r="G230" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" t="str">
+        <f>VLOOKUP(C230,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PEG</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11931,8 +12878,12 @@
       <c r="G231" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" t="str">
+        <f>VLOOKUP(C231,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PCG</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11954,8 +12905,12 @@
       <c r="G232" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" t="str">
+        <f>VLOOKUP(C232,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FANG</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11977,8 +12932,12 @@
       <c r="G233" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" t="str">
+        <f>VLOOKUP(C233,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>YUM</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12000,8 +12959,12 @@
       <c r="G234" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" t="str">
+        <f>VLOOKUP(C234,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IR</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12023,8 +12986,12 @@
       <c r="G235" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" t="str">
+        <f>VLOOKUP(C235,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LEN</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12046,8 +13013,12 @@
       <c r="G236" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" t="str">
+        <f>VLOOKUP(C236,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PWR</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12069,8 +13040,12 @@
       <c r="G237" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" t="str">
+        <f>VLOOKUP(C237,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GIS</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12092,8 +13067,12 @@
       <c r="G238" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" t="str">
+        <f>VLOOKUP(C238,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FAST</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12115,8 +13094,12 @@
       <c r="G239" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" t="str">
+        <f>VLOOKUP(C239,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MNST</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12138,8 +13121,12 @@
       <c r="G240" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" t="str">
+        <f>VLOOKUP(C240,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BKR</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12161,8 +13148,12 @@
       <c r="G241" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" t="str">
+        <f>VLOOKUP(C241,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CNC</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12184,8 +13175,12 @@
       <c r="G242" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" t="str">
+        <f>VLOOKUP(C242,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LULU</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12207,8 +13202,12 @@
       <c r="G243" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" t="str">
+        <f>VLOOKUP(C243,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SYY</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12230,8 +13229,12 @@
       <c r="G244" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" t="str">
+        <f>VLOOKUP(C244,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EXC</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12253,8 +13256,12 @@
       <c r="G245" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" t="str">
+        <f>VLOOKUP(C245,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12276,8 +13283,12 @@
       <c r="G246" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" t="str">
+        <f>VLOOKUP(C246,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KVUE</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12299,8 +13310,12 @@
       <c r="G247" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" t="str">
+        <f>VLOOKUP(C247,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KDP</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12322,8 +13337,12 @@
       <c r="G248" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" t="str">
+        <f>VLOOKUP(C248,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CTSH</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12345,8 +13364,12 @@
       <c r="G249" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" t="str">
+        <f>VLOOKUP(C249,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BIIB</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12368,8 +13391,12 @@
       <c r="G250" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" t="str">
+        <f>VLOOKUP(C250,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EA</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12391,8 +13418,12 @@
       <c r="G251" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" t="str">
+        <f>VLOOKUP(C251,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DFS</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12414,8 +13445,12 @@
       <c r="G252" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" t="str">
+        <f>VLOOKUP(C252,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DD</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12437,8 +13472,12 @@
       <c r="G253" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" t="str">
+        <f>VLOOKUP(C253,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KR</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12460,8 +13499,12 @@
       <c r="G254" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254" t="str">
+        <f>VLOOKUP(C254,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MLM</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12483,8 +13526,12 @@
       <c r="G255" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255" t="str">
+        <f>VLOOKUP(C255,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VMC</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12506,8 +13553,12 @@
       <c r="G256" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" t="str">
+        <f>VLOOKUP(C256,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GEHC</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12529,8 +13580,12 @@
       <c r="G257" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" t="str">
+        <f>VLOOKUP(C257,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EXR</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12552,8 +13607,12 @@
       <c r="G258" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" t="str">
+        <f>VLOOKUP(C258,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ODFL</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12575,8 +13634,12 @@
       <c r="G259" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" t="str">
+        <f>VLOOKUP(C259,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>XYL</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12598,8 +13661,12 @@
       <c r="G260" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" t="str">
+        <f>VLOOKUP(C260,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ED</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12621,8 +13688,12 @@
       <c r="G261" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" t="str">
+        <f>VLOOKUP(C261,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DVN</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12644,8 +13715,12 @@
       <c r="G262" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" t="str">
+        <f>VLOOKUP(C262,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ROK</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12667,8 +13742,12 @@
       <c r="G263" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" t="str">
+        <f>VLOOKUP(C263,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HPQ</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12690,8 +13769,12 @@
       <c r="G264" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" t="str">
+        <f>VLOOKUP(C264,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HWM</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12713,8 +13796,12 @@
       <c r="G265" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" t="str">
+        <f>VLOOKUP(C265,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DAL</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12736,8 +13823,12 @@
       <c r="G266" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" t="str">
+        <f>VLOOKUP(C266,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CSGP</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12759,8 +13850,12 @@
       <c r="G267" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" t="str">
+        <f>VLOOKUP(C267,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ADM</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12782,8 +13877,12 @@
       <c r="G268" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" t="str">
+        <f>VLOOKUP(C268,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HIG</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12805,8 +13904,12 @@
       <c r="G269" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" t="str">
+        <f>VLOOKUP(C269,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HAL</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12828,8 +13931,12 @@
       <c r="G270" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" t="str">
+        <f>VLOOKUP(C270,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ON</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12851,8 +13958,12 @@
       <c r="G271" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271" t="str">
+        <f>VLOOKUP(C271,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GLW</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12874,8 +13985,12 @@
       <c r="G272" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" t="str">
+        <f>VLOOKUP(C272,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MTD</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12897,8 +14012,12 @@
       <c r="G273" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" t="str">
+        <f>VLOOKUP(C273,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CDW</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12920,8 +14039,12 @@
       <c r="G274" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" t="str">
+        <f>VLOOKUP(C274,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TRGP</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12943,8 +14066,12 @@
       <c r="G275" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" t="str">
+        <f>VLOOKUP(C275,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CHTR</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12966,8 +14093,12 @@
       <c r="G276" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" t="str">
+        <f>VLOOKUP(C276,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PPG</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12989,8 +14120,12 @@
       <c r="G277" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" t="str">
+        <f>VLOOKUP(C277,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EFX</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13012,8 +14147,12 @@
       <c r="G278" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" t="str">
+        <f>VLOOKUP(C278,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TSCO</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13035,8 +14174,12 @@
       <c r="G279" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" t="str">
+        <f>VLOOKUP(C279,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VICI</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13058,8 +14201,12 @@
       <c r="G280" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" t="str">
+        <f>VLOOKUP(C280,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>XEL</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13081,8 +14228,12 @@
       <c r="G281" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" t="str">
+        <f>VLOOKUP(C281,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AVB</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13104,8 +14255,12 @@
       <c r="G282" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" t="str">
+        <f>VLOOKUP(C282,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DG</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13127,8 +14282,12 @@
       <c r="G283" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" t="str">
+        <f>VLOOKUP(C283,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VST</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13150,8 +14309,12 @@
       <c r="G284" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" t="e">
+        <f>VLOOKUP(C284,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13173,8 +14336,12 @@
       <c r="G285" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" t="str">
+        <f>VLOOKUP(C285,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WAB</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13196,8 +14363,12 @@
       <c r="G286" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" t="str">
+        <f>VLOOKUP(C286,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RMD</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13219,8 +14390,12 @@
       <c r="G287" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" t="str">
+        <f>VLOOKUP(C287,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HSY</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13242,8 +14417,12 @@
       <c r="G288" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" t="e">
+        <f>VLOOKUP(C288,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13265,8 +14444,12 @@
       <c r="G289" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" t="str">
+        <f>VLOOKUP(C289,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HPE</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13288,8 +14471,12 @@
       <c r="G290" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" t="str">
+        <f>VLOOKUP(C290,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NTAP</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13311,8 +14498,12 @@
       <c r="G291" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" t="str">
+        <f>VLOOKUP(C291,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WTW</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -13334,8 +14525,12 @@
       <c r="G292" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" t="str">
+        <f>VLOOKUP(C292,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EBAY</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13357,8 +14552,12 @@
       <c r="G293" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" t="str">
+        <f>VLOOKUP(C293,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IRM</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13380,8 +14579,12 @@
       <c r="G294" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" t="str">
+        <f>VLOOKUP(C294,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CHD</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13403,8 +14606,12 @@
       <c r="G295" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" t="str">
+        <f>VLOOKUP(C295,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CBRE</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13426,8 +14633,12 @@
       <c r="G296" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" t="str">
+        <f>VLOOKUP(C296,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TROW</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13449,8 +14660,12 @@
       <c r="G297" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" t="str">
+        <f>VLOOKUP(C297,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FTV</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13472,8 +14687,12 @@
       <c r="G298" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" t="str">
+        <f>VLOOKUP(C298,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KHC</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13495,8 +14714,12 @@
       <c r="G299" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" t="str">
+        <f>VLOOKUP(C299,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MTB</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13518,8 +14741,12 @@
       <c r="G300" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" t="str">
+        <f>VLOOKUP(C300,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AWK</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -13541,8 +14768,12 @@
       <c r="G301" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" t="str">
+        <f>VLOOKUP(C301,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DOV</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -13564,8 +14795,12 @@
       <c r="G302" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302" t="str">
+        <f>VLOOKUP(C302,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FITB</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -13587,8 +14822,12 @@
       <c r="G303" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H303" t="str">
+        <f>VLOOKUP(C303,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GRMN</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -13610,8 +14849,12 @@
       <c r="G304" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304" t="str">
+        <f>VLOOKUP(C304,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WEC</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -13633,8 +14876,12 @@
       <c r="G305" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H305" t="str">
+        <f>VLOOKUP(C305,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EL</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13656,8 +14903,12 @@
       <c r="G306" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306" t="str">
+        <f>VLOOKUP(C306,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WDC</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13679,8 +14930,12 @@
       <c r="G307" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307" t="str">
+        <f>VLOOKUP(C307,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TTWO</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13702,8 +14957,12 @@
       <c r="G308" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" t="str">
+        <f>VLOOKUP(C308,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GPN</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13725,8 +14984,12 @@
       <c r="G309" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309" t="e">
+        <f>VLOOKUP(C309,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13748,8 +15011,12 @@
       <c r="G310" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310" t="str">
+        <f>VLOOKUP(C310,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LYB</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13771,8 +15038,12 @@
       <c r="G311" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H311" t="str">
+        <f>VLOOKUP(C311,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WST</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13794,8 +15065,12 @@
       <c r="G312" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H312" t="str">
+        <f>VLOOKUP(C312,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CAH</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13817,8 +15092,12 @@
       <c r="G313" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H313" t="str">
+        <f>VLOOKUP(C313,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FSLR</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13840,8 +15119,12 @@
       <c r="G314" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H314" t="str">
+        <f>VLOOKUP(C314,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NVR</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13863,8 +15146,12 @@
       <c r="G315" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H315" t="str">
+        <f>VLOOKUP(C315,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IFF</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13886,8 +15173,12 @@
       <c r="G316" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H316" t="str">
+        <f>VLOOKUP(C316,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KEYS</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13909,8 +15200,12 @@
       <c r="G317" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H317" t="str">
+        <f>VLOOKUP(C317,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EQR</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13932,8 +15227,12 @@
       <c r="G318" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H318" t="str">
+        <f>VLOOKUP(C318,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RJF</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13955,8 +15254,12 @@
       <c r="G319" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H319" t="str">
+        <f>VLOOKUP(C319,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BR</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -13978,8 +15281,12 @@
       <c r="G320" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H320" t="str">
+        <f>VLOOKUP(C320,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NDAQ</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -14001,8 +15308,12 @@
       <c r="G321" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H321" t="str">
+        <f>VLOOKUP(C321,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TER</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14024,8 +15335,12 @@
       <c r="G322" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H322" t="str">
+        <f>VLOOKUP(C322,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PHM</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14047,8 +15362,12 @@
       <c r="G323" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H323" t="str">
+        <f>VLOOKUP(C323,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DTE</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14070,8 +15389,12 @@
       <c r="G324" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H324" t="str">
+        <f>VLOOKUP(C324,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ETR</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14093,8 +15416,12 @@
       <c r="G325" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H325" t="str">
+        <f>VLOOKUP(C325,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DLTR</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14116,8 +15443,12 @@
       <c r="G326" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H326" t="str">
+        <f>VLOOKUP(C326,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>STT</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14139,8 +15470,12 @@
       <c r="G327" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H327" t="str">
+        <f>VLOOKUP(C327,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ZBH</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14162,8 +15497,12 @@
       <c r="G328" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H328" t="str">
+        <f>VLOOKUP(C328,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>STE</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -14185,8 +15524,12 @@
       <c r="G329" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H329" t="str">
+        <f>VLOOKUP(C329,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PTC</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -14208,8 +15551,12 @@
       <c r="G330" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H330" t="str">
+        <f>VLOOKUP(C330,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BRO</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14231,8 +15578,12 @@
       <c r="G331" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H331" t="str">
+        <f>VLOOKUP(C331,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VLTO</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14254,8 +15605,12 @@
       <c r="G332" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H332" t="str">
+        <f>VLOOKUP(C332,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TYL</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14277,8 +15632,12 @@
       <c r="G333" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H333" t="str">
+        <f>VLOOKUP(C333,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>INVH</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14300,8 +15659,12 @@
       <c r="G334" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H334" t="str">
+        <f>VLOOKUP(C334,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SBAC</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14323,8 +15686,12 @@
       <c r="G335" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H335" t="str">
+        <f>VLOOKUP(C335,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>VTR</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14346,8 +15713,12 @@
       <c r="G336" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H336" t="str">
+        <f>VLOOKUP(C336,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AXON</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14369,8 +15740,12 @@
       <c r="G337" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H337" t="str">
+        <f>VLOOKUP(C337,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WY</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14392,8 +15767,12 @@
       <c r="G338" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H338" t="str">
+        <f>VLOOKUP(C338,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PPL</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14415,8 +15794,12 @@
       <c r="G339" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H339" t="str">
+        <f>VLOOKUP(C339,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CTRA</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14438,8 +15821,12 @@
       <c r="G340" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H340" t="str">
+        <f>VLOOKUP(C340,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GDDY</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14461,8 +15848,12 @@
       <c r="G341" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H341" t="str">
+        <f>VLOOKUP(C341,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LDOS</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14484,8 +15875,12 @@
       <c r="G342" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H342" t="str">
+        <f>VLOOKUP(C342,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -14507,8 +15902,12 @@
       <c r="G343" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H343" t="str">
+        <f>VLOOKUP(C343,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>STX</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -14530,8 +15929,12 @@
       <c r="G344" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H344" t="str">
+        <f>VLOOKUP(C344,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ES</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -14553,8 +15956,12 @@
       <c r="G345" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H345" t="str">
+        <f>VLOOKUP(C345,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SYF</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -14576,8 +15983,12 @@
       <c r="G346" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H346" t="str">
+        <f>VLOOKUP(C346,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CNP</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -14599,8 +16010,12 @@
       <c r="G347" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H347" t="str">
+        <f>VLOOKUP(C347,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HUBB</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -14622,8 +16037,12 @@
       <c r="G348" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H348" t="str">
+        <f>VLOOKUP(C348,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>STLD</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -14645,8 +16064,12 @@
       <c r="G349" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H349" t="str">
+        <f>VLOOKUP(C349,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HBAN</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -14668,8 +16091,12 @@
       <c r="G350" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H350" t="str">
+        <f>VLOOKUP(C350,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ULTA</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -14691,8 +16118,12 @@
       <c r="G351" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H351" t="str">
+        <f>VLOOKUP(C351,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GPC</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -14714,8 +16145,12 @@
       <c r="G352" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H352" t="str">
+        <f>VLOOKUP(C352,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CINF</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -14737,8 +16172,12 @@
       <c r="G353" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H353" t="str">
+        <f>VLOOKUP(C353,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CPAY</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -14760,8 +16199,12 @@
       <c r="G354" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H354" t="str">
+        <f>VLOOKUP(C354,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BALL</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -14783,8 +16226,12 @@
       <c r="G355" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H355" t="str">
+        <f>VLOOKUP(C355,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>APTV</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -14806,8 +16253,12 @@
       <c r="G356" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H356" t="str">
+        <f>VLOOKUP(C356,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RF</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -14829,8 +16280,12 @@
       <c r="G357" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H357" t="str">
+        <f>VLOOKUP(C357,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AEE</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -14852,8 +16307,12 @@
       <c r="G358" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H358" t="str">
+        <f>VLOOKUP(C358,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CBOE</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -14875,8 +16334,12 @@
       <c r="G359" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H359" t="str">
+        <f>VLOOKUP(C359,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ARE</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -14898,8 +16361,12 @@
       <c r="G360" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H360" t="str">
+        <f>VLOOKUP(C360,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TDY</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -14921,8 +16388,12 @@
       <c r="G361" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H361" t="str">
+        <f>VLOOKUP(C361,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DRI</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -14944,8 +16415,12 @@
       <c r="G362" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H362" t="str">
+        <f>VLOOKUP(C362,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CCL</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -14967,8 +16442,12 @@
       <c r="G363" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H363" t="str">
+        <f>VLOOKUP(C363,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DPZ</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14990,8 +16469,12 @@
       <c r="G364" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H364" t="str">
+        <f>VLOOKUP(C364,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MKC</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -15013,8 +16496,12 @@
       <c r="G365" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H365" t="str">
+        <f>VLOOKUP(C365,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ESS</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -15036,8 +16523,12 @@
       <c r="G366" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H366" t="str">
+        <f>VLOOKUP(C366,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -15059,8 +16550,12 @@
       <c r="G367" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H367" t="str">
+        <f>VLOOKUP(C367,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HOLX</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -15082,8 +16577,12 @@
       <c r="G368" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H368" t="str">
+        <f>VLOOKUP(C368,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NTRS</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -15105,8 +16604,12 @@
       <c r="G369" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H369" t="str">
+        <f>VLOOKUP(C369,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>OMC</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -15128,8 +16631,12 @@
       <c r="G370" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H370" t="str">
+        <f>VLOOKUP(C370,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ATO</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -15151,8 +16658,12 @@
       <c r="G371" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H371" t="str">
+        <f>VLOOKUP(C371,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LH</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -15174,8 +16685,12 @@
       <c r="G372" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H372" t="str">
+        <f>VLOOKUP(C372,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AVY</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -15197,8 +16712,12 @@
       <c r="G373" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H373" t="str">
+        <f>VLOOKUP(C373,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CMS</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -15220,8 +16739,12 @@
       <c r="G374" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H374" t="str">
+        <f>VLOOKUP(C374,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>COO</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -15243,8 +16766,12 @@
       <c r="G375" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H375" t="str">
+        <f>VLOOKUP(C375,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PFG</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -15266,8 +16793,12 @@
       <c r="G376" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H376" t="str">
+        <f>VLOOKUP(C376,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EXPD</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -15289,8 +16820,12 @@
       <c r="G377" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H377" t="str">
+        <f>VLOOKUP(C377,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ALGN</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -15312,8 +16847,12 @@
       <c r="G378" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H378" t="str">
+        <f>VLOOKUP(C378,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MOH</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -15335,8 +16874,12 @@
       <c r="G379" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H379" t="str">
+        <f>VLOOKUP(C379,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SWKS</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -15358,8 +16901,12 @@
       <c r="G380" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H380" t="str">
+        <f>VLOOKUP(C380,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BAX</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -15381,8 +16928,12 @@
       <c r="G381" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H381" t="str">
+        <f>VLOOKUP(C381,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LUV</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -15404,8 +16955,12 @@
       <c r="G382" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H382" t="str">
+        <f>VLOOKUP(C382,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WAT</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -15427,8 +16982,12 @@
       <c r="G383" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H383" t="e">
+        <f>VLOOKUP(C383,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -15450,8 +17009,12 @@
       <c r="G384" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H384" t="str">
+        <f>VLOOKUP(C384,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CFG</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -15473,8 +17036,12 @@
       <c r="G385" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H385" t="str">
+        <f>VLOOKUP(C385,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CLX</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -15496,8 +17063,12 @@
       <c r="G386" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H386" t="str">
+        <f>VLOOKUP(C386,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BLDR</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -15519,8 +17090,12 @@
       <c r="G387" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H387" t="str">
+        <f>VLOOKUP(C387,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TSN</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -15542,8 +17117,12 @@
       <c r="G388" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H388" t="str">
+        <f>VLOOKUP(C388,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MAA</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -15565,8 +17144,12 @@
       <c r="G389" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H389" t="str">
+        <f>VLOOKUP(C389,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EG</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -15588,8 +17171,12 @@
       <c r="G390" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H390" t="str">
+        <f>VLOOKUP(C390,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NRG</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -15611,8 +17198,12 @@
       <c r="G391" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H391" t="str">
+        <f>VLOOKUP(C391,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EQT</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -15634,8 +17225,12 @@
       <c r="G392" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H392" t="str">
+        <f>VLOOKUP(C392,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MRO</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15657,8 +17252,12 @@
       <c r="G393" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H393" t="str">
+        <f>VLOOKUP(C393,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PKG</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15680,8 +17279,12 @@
       <c r="G394" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H394" t="str">
+        <f>VLOOKUP(C394,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WRB</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15703,8 +17306,12 @@
       <c r="G395" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H395" t="str">
+        <f>VLOOKUP(C395,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BBY</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15726,8 +17333,12 @@
       <c r="G396" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H396" t="str">
+        <f>VLOOKUP(C396,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>UAL</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15749,8 +17360,12 @@
       <c r="G397" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H397" t="str">
+        <f>VLOOKUP(C397,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LVS</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15772,8 +17387,12 @@
       <c r="G398" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H398" t="str">
+        <f>VLOOKUP(C398,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WBD</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15795,8 +17414,12 @@
       <c r="G399" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H399" t="str">
+        <f>VLOOKUP(C399,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ZBRA</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15818,8 +17441,12 @@
       <c r="G400" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H400" t="str">
+        <f>VLOOKUP(C400,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FDS</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15841,8 +17468,12 @@
       <c r="G401" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H401" t="e">
+        <f>VLOOKUP(C401,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15864,8 +17495,12 @@
       <c r="G402" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H402" t="str">
+        <f>VLOOKUP(C402,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BG</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15887,8 +17522,12 @@
       <c r="G403" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H403" t="str">
+        <f>VLOOKUP(C403,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EXPE</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15910,8 +17549,12 @@
       <c r="G404" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H404" t="e">
+        <f>VLOOKUP(C404,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15933,8 +17576,12 @@
       <c r="G405" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H405" t="str">
+        <f>VLOOKUP(C405,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IP</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15956,8 +17603,12 @@
       <c r="G406" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H406" t="str">
+        <f>VLOOKUP(C406,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>K</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15979,8 +17630,12 @@
       <c r="G407" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H407" t="str">
+        <f>VLOOKUP(C407,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IEX</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -16002,8 +17657,12 @@
       <c r="G408" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H408" t="str">
+        <f>VLOOKUP(C408,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MAS</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -16025,8 +17684,12 @@
       <c r="G409" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H409" t="str">
+        <f>VLOOKUP(C409,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GEN</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -16048,8 +17711,12 @@
       <c r="G410" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H410" t="str">
+        <f>VLOOKUP(C410,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AMCR</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -16071,8 +17738,12 @@
       <c r="G411" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H411" t="str">
+        <f>VLOOKUP(C411,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TRMB</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -16094,8 +17765,12 @@
       <c r="G412" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H412" t="str">
+        <f>VLOOKUP(C412,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DOC</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -16117,8 +17792,12 @@
       <c r="G413" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H413" t="str">
+        <f>VLOOKUP(C413,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PODD</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -16140,8 +17819,12 @@
       <c r="G414" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H414" t="str">
+        <f>VLOOKUP(C414,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -16163,8 +17846,12 @@
       <c r="G415" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H415" t="str">
+        <f>VLOOKUP(C415,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SNA</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -16186,8 +17873,12 @@
       <c r="G416" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H416" t="str">
+        <f>VLOOKUP(C416,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ROL</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -16209,8 +17900,12 @@
       <c r="G417" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H417" t="str">
+        <f>VLOOKUP(C417,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AKAM</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -16232,8 +17927,12 @@
       <c r="G418" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H418" t="e">
+        <f>VLOOKUP(C418,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -16255,8 +17954,12 @@
       <c r="G419" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H419" t="str">
+        <f>VLOOKUP(C419,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LYV</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -16278,8 +17981,12 @@
       <c r="G420" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H420" t="str">
+        <f>VLOOKUP(C420,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CF</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -16301,8 +18008,12 @@
       <c r="G421" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H421" t="str">
+        <f>VLOOKUP(C421,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KEY</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16324,8 +18035,12 @@
       <c r="G422" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H422" t="str">
+        <f>VLOOKUP(C422,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ENPH</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16347,8 +18062,12 @@
       <c r="G423" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H423" t="str">
+        <f>VLOOKUP(C423,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16370,8 +18089,12 @@
       <c r="G424" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H424" t="str">
+        <f>VLOOKUP(C424,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>JBL</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16393,8 +18116,12 @@
       <c r="G425" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H425" t="e">
+        <f>VLOOKUP(C425,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16416,8 +18143,12 @@
       <c r="G426" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H426" t="str">
+        <f>VLOOKUP(C426,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NI</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16439,8 +18170,12 @@
       <c r="G427" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H427" t="str">
+        <f>VLOOKUP(C427,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KIM</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16462,8 +18197,12 @@
       <c r="G428" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H428" t="str">
+        <f>VLOOKUP(C428,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LNT</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16485,8 +18224,12 @@
       <c r="G429" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H429" t="e">
+        <f>VLOOKUP(C429,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16508,8 +18251,12 @@
       <c r="G430" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H430" t="str">
+        <f>VLOOKUP(C430,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RVTY</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16531,8 +18278,12 @@
       <c r="G431" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H431" t="str">
+        <f>VLOOKUP(C431,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WRK</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16554,8 +18305,12 @@
       <c r="G432" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H432" t="str">
+        <f>VLOOKUP(C432,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>UDR</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16577,8 +18332,12 @@
       <c r="G433" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H433" t="str">
+        <f>VLOOKUP(C433,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HST</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16600,8 +18359,12 @@
       <c r="G434" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H434" t="str">
+        <f>VLOOKUP(C434,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NDSN</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16623,8 +18386,12 @@
       <c r="G435" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H435" t="str">
+        <f>VLOOKUP(C435,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PNR</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16646,8 +18413,12 @@
       <c r="G436" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H436" t="e">
+        <f>VLOOKUP(C436,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16669,8 +18440,12 @@
       <c r="G437" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H437" t="str">
+        <f>VLOOKUP(C437,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SWK</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16692,8 +18467,12 @@
       <c r="G438" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H438" t="str">
+        <f>VLOOKUP(C438,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>JKHY</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16715,8 +18494,12 @@
       <c r="G439" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H439" t="str">
+        <f>VLOOKUP(C439,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>POOL</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16738,8 +18521,12 @@
       <c r="G440" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H440" t="str">
+        <f>VLOOKUP(C440,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LW</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16761,8 +18548,12 @@
       <c r="G441" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H441" t="str">
+        <f>VLOOKUP(C441,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AES</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16784,8 +18575,12 @@
       <c r="G442" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H442" t="str">
+        <f>VLOOKUP(C442,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>JNPR</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16807,8 +18602,12 @@
       <c r="G443" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H443" t="str">
+        <f>VLOOKUP(C443,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CPT</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16830,8 +18629,12 @@
       <c r="G444" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H444" t="str">
+        <f>VLOOKUP(C444,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>QRVO</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -16853,8 +18656,12 @@
       <c r="G445" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H445" t="str">
+        <f>VLOOKUP(C445,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ALB</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -16876,8 +18683,12 @@
       <c r="G446" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H446" t="str">
+        <f>VLOOKUP(C446,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SJM</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -16899,8 +18710,12 @@
       <c r="G447" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H447" t="str">
+        <f>VLOOKUP(C447,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>INCY</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -16922,8 +18737,12 @@
       <c r="G448" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H448" t="str">
+        <f>VLOOKUP(C448,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TECH</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -16945,8 +18764,12 @@
       <c r="G449" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H449" t="str">
+        <f>VLOOKUP(C449,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EMN</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -16968,8 +18791,12 @@
       <c r="G450" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H450" t="str">
+        <f>VLOOKUP(C450,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>KMX</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -16991,8 +18818,12 @@
       <c r="G451" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H451" t="str">
+        <f>VLOOKUP(C451,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>LKQ</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -17014,8 +18845,12 @@
       <c r="G452" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H452" t="e">
+        <f>VLOOKUP(C452,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -17037,8 +18872,12 @@
       <c r="G453" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H453" t="str">
+        <f>VLOOKUP(C453,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IPG</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17060,8 +18899,12 @@
       <c r="G454" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H454" t="str">
+        <f>VLOOKUP(C454,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MGM</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17083,8 +18926,12 @@
       <c r="G455" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H455" t="str">
+        <f>VLOOKUP(C455,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>APA</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17106,8 +18953,12 @@
       <c r="G456" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H456" t="str">
+        <f>VLOOKUP(C456,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>EPAM</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17129,8 +18980,12 @@
       <c r="G457" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H457" t="str">
+        <f>VLOOKUP(C457,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NWSA</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17152,8 +19007,12 @@
       <c r="G458" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H458" t="str">
+        <f>VLOOKUP(C458,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CRL</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17175,8 +19034,12 @@
       <c r="G459" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H459" t="str">
+        <f>VLOOKUP(C459,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>REG</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17198,8 +19061,12 @@
       <c r="G460" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H460" t="str">
+        <f>VLOOKUP(C460,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ALLE</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17221,8 +19088,12 @@
       <c r="G461" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H461" t="str">
+        <f>VLOOKUP(C461,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FFIV</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17244,8 +19115,12 @@
       <c r="G462" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H462" t="str">
+        <f>VLOOKUP(C462,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CTLT</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17267,8 +19142,12 @@
       <c r="G463" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H463" t="str">
+        <f>VLOOKUP(C463,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CHRW</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17290,8 +19169,12 @@
       <c r="G464" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H464" t="str">
+        <f>VLOOKUP(C464,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TFX</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17313,8 +19196,12 @@
       <c r="G465" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H465" t="str">
+        <f>VLOOKUP(C465,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AOS</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17336,8 +19223,12 @@
       <c r="G466" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H466" t="str">
+        <f>VLOOKUP(C466,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HII</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17359,8 +19250,12 @@
       <c r="G467" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H467" t="str">
+        <f>VLOOKUP(C467,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TPR</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17382,8 +19277,12 @@
       <c r="G468" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H468" t="str">
+        <f>VLOOKUP(C468,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>TAP</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -17405,8 +19304,12 @@
       <c r="G469" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H469" t="str">
+        <f>VLOOKUP(C469,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MOS</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -17428,8 +19331,12 @@
       <c r="G470" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H470" t="str">
+        <f>VLOOKUP(C470,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CPB</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -17451,8 +19358,12 @@
       <c r="G471" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H471" t="str">
+        <f>VLOOKUP(C471,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HRL</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -17474,8 +19385,12 @@
       <c r="G472" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H472" t="str">
+        <f>VLOOKUP(C472,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AIZ</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -17497,8 +19412,12 @@
       <c r="G473" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H473" t="str">
+        <f>VLOOKUP(C473,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BBWI</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -17520,8 +19439,12 @@
       <c r="G474" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H474" t="str">
+        <f>VLOOKUP(C474,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BXP</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -17543,8 +19466,12 @@
       <c r="G475" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H475" t="str">
+        <f>VLOOKUP(C475,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HSIC</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -17566,8 +19493,12 @@
       <c r="G476" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H476" t="str">
+        <f>VLOOKUP(C476,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PNW</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -17589,8 +19520,12 @@
       <c r="G477" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H477" t="str">
+        <f>VLOOKUP(C477,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WYNN</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -17612,8 +19547,12 @@
       <c r="G478" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H478" t="str">
+        <f>VLOOKUP(C478,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>WBA</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -17635,8 +19574,12 @@
       <c r="G479" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H479" t="str">
+        <f>VLOOKUP(C479,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FOXA</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -17658,8 +19601,12 @@
       <c r="G480" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H480" t="str">
+        <f>VLOOKUP(C480,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GNRC</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -17681,8 +19628,12 @@
       <c r="G481" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H481" t="str">
+        <f>VLOOKUP(C481,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>CZR</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -17704,8 +19655,12 @@
       <c r="G482" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H482" t="str">
+        <f>VLOOKUP(C482,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MTCH</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -17727,8 +19682,12 @@
       <c r="G483" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H483" t="str">
+        <f>VLOOKUP(C483,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DAY</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -17750,8 +19709,12 @@
       <c r="G484" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H484" t="e">
+        <f>VLOOKUP(C484,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -17773,8 +19736,12 @@
       <c r="G485" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H485" t="str">
+        <f>VLOOKUP(C485,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>DVA</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -17796,8 +19763,12 @@
       <c r="G486" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H486" t="str">
+        <f>VLOOKUP(C486,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FRT</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -17819,8 +19790,12 @@
       <c r="G487" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H487" t="e">
+        <f>VLOOKUP(C487,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -17842,8 +19817,12 @@
       <c r="G488" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H488" t="str">
+        <f>VLOOKUP(C488,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>HAS</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -17865,8 +19844,12 @@
       <c r="G489" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H489" t="str">
+        <f>VLOOKUP(C489,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>NCLH</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -17888,8 +19871,12 @@
       <c r="G490" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H490" t="str">
+        <f>VLOOKUP(C490,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MKTX</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -17911,8 +19898,12 @@
       <c r="G491" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H491" t="str">
+        <f>VLOOKUP(C491,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>AAL</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -17934,8 +19925,12 @@
       <c r="G492" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H492" t="str">
+        <f>VLOOKUP(C492,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FMC</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -17957,8 +19952,12 @@
       <c r="G493" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H493" t="str">
+        <f>VLOOKUP(C493,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>SOLV</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -17980,8 +19979,12 @@
       <c r="G494" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H494" t="str">
+        <f>VLOOKUP(C494,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>GL</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18003,8 +20006,12 @@
       <c r="G495" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H495" t="str">
+        <f>VLOOKUP(C495,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PAYC</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18026,8 +20033,12 @@
       <c r="G496" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H496" t="str">
+        <f>VLOOKUP(C496,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>RL</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18049,8 +20060,12 @@
       <c r="G497" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H497" t="str">
+        <f>VLOOKUP(C497,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>ETSY</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -18072,8 +20087,12 @@
       <c r="G498" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H498" t="str">
+        <f>VLOOKUP(C498,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>IVZ</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -18095,8 +20114,12 @@
       <c r="G499" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H499" t="str">
+        <f>VLOOKUP(C499,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BEN</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -18118,8 +20141,12 @@
       <c r="G500" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H500" t="str">
+        <f>VLOOKUP(C500,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>MHK</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -18141,8 +20168,12 @@
       <c r="G501" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H501" t="str">
+        <f>VLOOKUP(C501,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>BIO</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -18164,8 +20195,12 @@
       <c r="G502" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H502" t="str">
+        <f>VLOOKUP(C502,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>PARA</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -18187,8 +20222,12 @@
       <c r="G503" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H503" t="str">
+        <f>VLOOKUP(C503,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>FOX</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -18210,8 +20249,19 @@
       <c r="G504" t="s">
         <v>2066</v>
       </c>
+      <c r="H504" t="e">
+        <f>VLOOKUP(C504,[1]!scraped_data_orginal[stock_code],1,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H504" xr:uid="{9770DAE3-6D1E-40E2-8D03-759A1C2E0D0D}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="#YOK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>